--- a/Compass.WinForm/bin/Debug/JobCard.xlsx
+++ b/Compass.WinForm/bin/Debug/JobCard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass.WinForm\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C0EFE4-92FC-4E3D-A0D5-2D8B2C7821FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CCF278-F186-433E-81B9-FAE900DD437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="195">
   <si>
     <t>Order Number 订单编号</t>
   </si>
@@ -519,26 +519,15 @@
     <t>UV system is installed and proper functioning (details in the SOP). UV warning signs have been posted on the UV door. UV系统已安装并正常运作(详见SOP)，UV警示标识已张贴在UV门上。</t>
   </si>
   <si>
-    <t>Installation brackets of UV Rack of UV hoods have been welded. UV烟罩的UV Rack的安装支架已焊接。</t>
-  </si>
-  <si>
     <t>The type of UV control of UV hoods can meet the drawing. UV烟罩的UV控制器型号符合图纸要求。</t>
   </si>
   <si>
-    <t>If a project contains UV hoods,then all KSA filters and washing baffle plates of this project should be assemblied with magnets.
-含UV烟罩的项目，所有KSA过滤器和水洗挡板上的磁铁已安装。</t>
-  </si>
-  <si>
     <t>Ansul pipe watertight test has been done(sample inspection), keep 1.6Mpa pressure for 5min, no leakage.  Ansul管路漏水测试（抽检），打压1.6Mpa保压5min，管路无漏水。</t>
   </si>
   <si>
     <t>Ansul system is installed according to the drawing. Ansul已按图纸安装。</t>
   </si>
   <si>
-    <t>Penetrant testing has been passed,no leakage. Washing pipes and spray nozzles are firmly assembled, the model of spray nozzles and angle are installed correctly.
-水洗烟罩渗透剂已喷，无渗漏。水洗管及喷头装配牢固，喷头型号及角度安装正确。</t>
-  </si>
-  <si>
     <t>MARVEL function test of hoods with MARVEL system is tested and qualified.带MARVEL烟罩的MARVEL系统功能测试合格。</t>
   </si>
   <si>
@@ -645,6 +634,22 @@
   </si>
   <si>
     <t>Insulation resistance between control box should be greater than or equal to 50MΩ. 控制箱绝缘电阻≥50MΩ。</t>
+  </si>
+  <si>
+    <t>The appearance of the hood is smooth, and the water washing hood is water collecting and flanging 烟罩外观打胶平整，水洗烟罩集水翻边内打防水胶。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>If a project contains UV hoods,then all KSA filters and washing baffle plates of this project should be assemblied with magnets. 含UV烟罩的项目，所有KSA过滤器和水洗挡板上的磁铁已安装。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetrant testing has been passed,no leakage. Washing pipes and spray nozzles are firmly assembled, the model of spray nozzles and angle are installed correctly. 水洗烟罩渗透剂已喷，无渗漏。水洗管及喷头装配牢固，喷头型号及角度安装正确。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>The mounting bracket shooting pin of the UV Rack of the UV hood has been welded and reinforced. UV烟罩的UV Rack的安装支架 射钉已焊接加固。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -652,20 +657,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-10409]yyyy/m/d"/>
+    <numFmt numFmtId="176" formatCode="[$-10409]yyyy/m/d"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -763,6 +768,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1633,11 +1645,270 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1645,23 +1916,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1690,252 +1946,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2213,13 +2225,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>191965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2520,108 +2532,108 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H260"/>
+  <dimension ref="A2:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A160" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:E196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="154" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156" t="str">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="str">
         <f>$C$48</f>
         <v>FSO190786</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="157"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="140" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="158" t="str">
+      <c r="B4" s="56"/>
+      <c r="C4" s="73" t="str">
         <f>$C$50</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="160"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="140" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142" t="str">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="str">
         <f>$C$51</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="143"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="140" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="58"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="142" t="str">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57" t="str">
         <f>$C$52</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="143"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="144" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="146" t="str">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61" t="str">
         <f>$C$53</f>
         <v>KVI</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="147"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="148" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="149"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="4">
         <f>$E$65</f>
         <v>2050</v>
@@ -2644,17 +2656,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="150"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="153"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" thickTop="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2664,7 +2676,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2674,7 +2686,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2684,7 +2696,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2694,7 +2706,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2704,7 +2716,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2714,7 +2726,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2724,7 +2736,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2734,7 +2746,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2744,7 +2756,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2754,7 +2766,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2764,7 +2776,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2774,7 +2786,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2784,87 +2796,87 @@
       <c r="G22" s="18"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="154" t="s">
+    <row r="24" spans="1:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156" t="str">
+      <c r="B25" s="70"/>
+      <c r="C25" s="71" t="str">
         <f>$C$48</f>
         <v>FSO190786</v>
       </c>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="157"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="140" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="72"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A26" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="158" t="str">
+      <c r="B26" s="56"/>
+      <c r="C26" s="73" t="str">
         <f>$C$50</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="140" t="s">
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142" t="str">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57" t="str">
         <f>$C$51</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="143"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="140" t="s">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="58"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142" t="str">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57" t="str">
         <f>$C$52</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="143"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="144" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A29" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="146" t="str">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61" t="str">
         <f>$C$53</f>
         <v>KVI</v>
       </c>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="147"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="62"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A30" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="149"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="4">
         <f>$E$65</f>
         <v>2050</v>
@@ -2887,17 +2899,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="150"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="153"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" thickTop="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2907,7 +2919,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="18" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2917,7 +2929,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="18" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2927,7 +2939,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2937,7 +2949,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="18" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2947,7 +2959,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="18" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2957,7 +2969,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="18" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2967,7 +2979,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="18" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2977,7 +2989,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="18" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2987,7 +2999,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="18" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2997,7 +3009,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="18" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -3007,7 +3019,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="18" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -3017,7 +3029,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -3027,7 +3039,7 @@
       <c r="G44" s="18"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="21"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -3037,127 +3049,127 @@
       <c r="G45" s="13"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46" s="49"/>
       <c r="B46" s="49"/>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="49"/>
       <c r="B47" s="49"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="116" t="s">
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="139" t="s">
+      <c r="B48" s="77"/>
+      <c r="C48" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="116" t="s">
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="139" t="s">
+      <c r="B49" s="77"/>
+      <c r="C49" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="116" t="s">
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="139" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="116" t="s">
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="96"/>
-      <c r="C51" s="139" t="s">
+      <c r="B51" s="77"/>
+      <c r="C51" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="116" t="s">
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="139" t="s">
+      <c r="B52" s="77"/>
+      <c r="C52" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="116" t="s">
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="139" t="s">
+      <c r="B53" s="77"/>
+      <c r="C53" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="116" t="s">
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="77"/>
+      <c r="C54" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="23" t="s">
         <v>18</v>
       </c>
@@ -3183,27 +3195,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="126" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="134"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="126" t="s">
+      <c r="D56" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="117"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="135" t="s">
+      <c r="G56" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="136"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="89"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="26" t="s">
         <v>23</v>
       </c>
@@ -3213,50 +3225,50 @@
       <c r="C57" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="117"/>
+      <c r="D57" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="82"/>
       <c r="F57" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="137" t="s">
+      <c r="G57" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H57" s="138"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="116" t="s">
+      <c r="H57" s="91"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="131"/>
+      <c r="B58" s="81"/>
       <c r="C58" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="117"/>
+      <c r="D58" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="82"/>
       <c r="F58" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="132">
+      <c r="G58" s="83">
         <v>43826</v>
       </c>
-      <c r="H58" s="133"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="116" t="s">
+      <c r="H58" s="84"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="117"/>
+      <c r="B59" s="82"/>
       <c r="C59" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="117"/>
+      <c r="D59" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="82"/>
       <c r="F59" s="25" t="s">
         <v>18</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="29" t="s">
         <v>23</v>
       </c>
@@ -3277,10 +3289,10 @@
       <c r="C60" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="117"/>
+      <c r="D60" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="82"/>
       <c r="F60" s="25" t="s">
         <v>18</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="29" t="s">
         <v>29</v>
       </c>
@@ -3301,10 +3313,10 @@
       <c r="C61" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="117"/>
+      <c r="D61" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="82"/>
       <c r="F61" s="25" t="s">
         <v>18</v>
       </c>
@@ -3315,7 +3327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="30" t="s">
         <v>31</v>
       </c>
@@ -3325,10 +3337,10 @@
       <c r="C62" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="117"/>
+      <c r="D62" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="82"/>
       <c r="F62" s="25" t="s">
         <v>18</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="23" t="s">
         <v>18</v>
       </c>
@@ -3365,11 +3377,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A64" s="130" t="s">
+    <row r="64" spans="1:8" ht="33">
+      <c r="A64" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="96"/>
+      <c r="B64" s="77"/>
       <c r="C64" s="52" t="s">
         <v>34</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="50" t="s">
         <v>18</v>
       </c>
@@ -3417,203 +3429,203 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="128" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="129"/>
-      <c r="C66" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="96"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="97"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="128" t="s">
+      <c r="B66" s="101"/>
+      <c r="C66" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="103"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="129"/>
-      <c r="C67" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="97"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="127" t="s">
+      <c r="B67" s="101"/>
+      <c r="C67" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="103"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1">
+      <c r="A68" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="98"/>
-      <c r="C68" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="121"/>
-      <c r="E68" s="121"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="122"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="128" t="s">
+      <c r="B68" s="93"/>
+      <c r="C68" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="96"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1">
+      <c r="A69" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="129"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="125"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="101"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="99"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1">
       <c r="A70" s="48"/>
       <c r="B70" s="49"/>
-      <c r="C70" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="121"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="122"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="96"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1">
       <c r="A71" s="48"/>
       <c r="B71" s="49"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="125"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="97"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="99"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1">
       <c r="A72" s="48"/>
       <c r="B72" s="49"/>
-      <c r="C72" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="121"/>
-      <c r="E72" s="121"/>
-      <c r="F72" s="121"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="122"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="96"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1">
       <c r="A73" s="48"/>
       <c r="B73" s="49"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="125"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="97"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="99"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1">
       <c r="A74" s="48"/>
       <c r="B74" s="49"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
-      <c r="G74" s="121"/>
-      <c r="H74" s="122"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="94"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="96"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1">
       <c r="A75" s="48"/>
       <c r="B75" s="49"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="125"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="97"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="99"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1">
       <c r="A76" s="48"/>
       <c r="B76" s="49"/>
-      <c r="C76" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="121"/>
-      <c r="E76" s="121"/>
-      <c r="F76" s="121"/>
-      <c r="G76" s="121"/>
-      <c r="H76" s="122"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="96"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1">
       <c r="A77" s="48"/>
       <c r="B77" s="49"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="125"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="97"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="99"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1">
       <c r="A78" s="48"/>
       <c r="B78" s="49"/>
-      <c r="C78" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="121"/>
-      <c r="E78" s="121"/>
-      <c r="F78" s="121"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="122"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="96"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1">
       <c r="A79" s="48"/>
       <c r="B79" s="49"/>
-      <c r="C79" s="123"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="124"/>
-      <c r="H79" s="125"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="97"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="98"/>
+      <c r="H79" s="99"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1">
       <c r="A80" s="48"/>
       <c r="B80" s="49"/>
-      <c r="C80" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="121"/>
-      <c r="E80" s="121"/>
-      <c r="F80" s="121"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="122"/>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="95"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="96"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1">
       <c r="A81" s="48"/>
       <c r="B81" s="49"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="125"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="126" t="s">
+      <c r="C81" s="97"/>
+      <c r="D81" s="98"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="99"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="117"/>
+      <c r="B82" s="82"/>
       <c r="C82" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="118" t="s">
+      <c r="D82" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="E82" s="119"/>
-      <c r="F82" s="119"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
       <c r="G82" s="46" t="s">
         <v>48</v>
       </c>
@@ -3621,322 +3633,322 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="116" t="s">
+    <row r="83" spans="1:8">
+      <c r="A83" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="117"/>
+      <c r="B83" s="82"/>
       <c r="C83" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="119"/>
-      <c r="F83" s="120"/>
+      <c r="D83" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="105"/>
+      <c r="F83" s="106"/>
       <c r="G83" s="47"/>
       <c r="H83" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="116" t="s">
+    <row r="84" spans="1:8">
+      <c r="A84" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="117"/>
+      <c r="B84" s="82"/>
       <c r="C84" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="119"/>
-      <c r="F84" s="120"/>
+      <c r="D84" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="105"/>
+      <c r="F84" s="106"/>
       <c r="G84" s="47"/>
       <c r="H84" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="116" t="s">
+    <row r="85" spans="1:8">
+      <c r="A85" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="117"/>
+      <c r="B85" s="82"/>
       <c r="C85" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="119"/>
-      <c r="F85" s="120"/>
+      <c r="D85" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="105"/>
+      <c r="F85" s="106"/>
       <c r="G85" s="47"/>
       <c r="H85" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="116" t="s">
+    <row r="86" spans="1:8">
+      <c r="A86" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="117"/>
+      <c r="B86" s="82"/>
       <c r="C86" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="119"/>
-      <c r="F86" s="120"/>
+      <c r="D86" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="105"/>
+      <c r="F86" s="106"/>
       <c r="G86" s="47"/>
       <c r="H86" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="116" t="s">
+    <row r="87" spans="1:8">
+      <c r="A87" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="117"/>
+      <c r="B87" s="82"/>
       <c r="C87" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="119"/>
-      <c r="F87" s="120"/>
+      <c r="D87" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="105"/>
+      <c r="F87" s="106"/>
       <c r="G87" s="47"/>
       <c r="H87" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="116" t="s">
+    <row r="88" spans="1:8">
+      <c r="A88" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="117"/>
+      <c r="B88" s="82"/>
       <c r="C88" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="119"/>
-      <c r="F88" s="120"/>
+      <c r="D88" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="105"/>
+      <c r="F88" s="106"/>
       <c r="G88" s="47"/>
       <c r="H88" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="116" t="s">
+    <row r="89" spans="1:8">
+      <c r="A89" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B89" s="117"/>
+      <c r="B89" s="82"/>
       <c r="C89" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="119"/>
-      <c r="F89" s="120"/>
+      <c r="D89" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="105"/>
+      <c r="F89" s="106"/>
       <c r="G89" s="47"/>
       <c r="H89" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="116" t="s">
+    <row r="90" spans="1:8">
+      <c r="A90" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B90" s="117"/>
+      <c r="B90" s="82"/>
       <c r="C90" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="119"/>
-      <c r="F90" s="120"/>
+      <c r="D90" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="105"/>
+      <c r="F90" s="106"/>
       <c r="G90" s="47"/>
       <c r="H90" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="116" t="s">
+    <row r="91" spans="1:8">
+      <c r="A91" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="B91" s="117"/>
+      <c r="B91" s="82"/>
       <c r="C91" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="119"/>
-      <c r="F91" s="120"/>
+      <c r="D91" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="105"/>
+      <c r="F91" s="106"/>
       <c r="G91" s="47"/>
       <c r="H91" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="116" t="s">
+    <row r="92" spans="1:8">
+      <c r="A92" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="117"/>
+      <c r="B92" s="82"/>
       <c r="C92" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="119"/>
-      <c r="F92" s="120"/>
+      <c r="D92" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="105"/>
+      <c r="F92" s="106"/>
       <c r="G92" s="47"/>
       <c r="H92" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="116" t="s">
+    <row r="93" spans="1:8">
+      <c r="A93" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B93" s="117"/>
+      <c r="B93" s="82"/>
       <c r="C93" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="119"/>
-      <c r="F93" s="120"/>
+      <c r="D93" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="105"/>
+      <c r="F93" s="106"/>
       <c r="G93" s="47"/>
       <c r="H93" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="16.5" customHeight="1">
       <c r="A94" s="49"/>
       <c r="B94" s="49"/>
-      <c r="C94" s="107" t="s">
+      <c r="C94" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D94" s="107"/>
-      <c r="E94" s="107"/>
-      <c r="F94" s="107"/>
-      <c r="G94" s="107"/>
-      <c r="H94" s="107"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="79"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="49"/>
       <c r="B95" s="49"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="108"/>
-      <c r="E95" s="108"/>
-      <c r="F95" s="108"/>
-      <c r="G95" s="108"/>
-      <c r="H95" s="108"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="63" t="s">
+      <c r="C95" s="80"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="80"/>
+      <c r="H95" s="80"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="64"/>
-      <c r="C96" s="94" t="str">
+      <c r="B96" s="108"/>
+      <c r="C96" s="109" t="str">
         <f>$C$48</f>
         <v>FSO190786</v>
       </c>
-      <c r="D96" s="95"/>
-      <c r="E96" s="95"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="96"/>
-      <c r="H96" s="97"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="63" t="s">
+      <c r="D96" s="110"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="103"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="64"/>
-      <c r="C97" s="94" t="str">
+      <c r="B97" s="108"/>
+      <c r="C97" s="109" t="str">
         <f>$C$49</f>
         <v>CMFP190801</v>
       </c>
-      <c r="D97" s="95"/>
-      <c r="E97" s="95"/>
-      <c r="F97" s="96"/>
-      <c r="G97" s="96"/>
-      <c r="H97" s="97"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="63" t="s">
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="103"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="64"/>
-      <c r="C98" s="94" t="str">
+      <c r="B98" s="108"/>
+      <c r="C98" s="109" t="str">
         <f>$C$50</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D98" s="95"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="96"/>
-      <c r="G98" s="96"/>
-      <c r="H98" s="97"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="63" t="s">
+      <c r="D98" s="110"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="103"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="64"/>
-      <c r="C99" s="94" t="str">
+      <c r="B99" s="108"/>
+      <c r="C99" s="109" t="str">
         <f>$C$51</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D99" s="95"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="96"/>
-      <c r="H99" s="97"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="63" t="s">
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="103"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="64"/>
-      <c r="C100" s="94" t="str">
+      <c r="B100" s="108"/>
+      <c r="C100" s="109" t="str">
         <f>$C$52</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="96"/>
-      <c r="G100" s="96"/>
-      <c r="H100" s="97"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="110" t="s">
+      <c r="D100" s="110"/>
+      <c r="E100" s="110"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="103"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="111"/>
-      <c r="C101" s="112" t="str">
+      <c r="B101" s="112"/>
+      <c r="C101" s="113" t="str">
         <f>$C$53</f>
         <v>KVI</v>
       </c>
-      <c r="D101" s="113"/>
-      <c r="E101" s="113"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="114"/>
-      <c r="H101" s="115"/>
-    </row>
-    <row r="102" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A102" s="103"/>
-      <c r="B102" s="103"/>
-      <c r="C102" s="103"/>
-      <c r="D102" s="103"/>
-      <c r="E102" s="103"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="114"/>
+      <c r="F101" s="115"/>
+      <c r="G101" s="115"/>
+      <c r="H101" s="116"/>
+    </row>
+    <row r="102" spans="1:8" ht="33">
+      <c r="A102" s="117"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
       <c r="F102" s="51" t="s">
         <v>63</v>
       </c>
@@ -3947,26 +3959,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="109" t="s">
+    <row r="103" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A103" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="104" t="s">
+    <row r="104" spans="1:8">
+      <c r="A104" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="104"/>
-      <c r="C104" s="104"/>
-      <c r="D104" s="104"/>
-      <c r="E104" s="104"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
       <c r="F104" s="37" t="s">
         <v>18</v>
       </c>
@@ -3975,14 +3987,14 @@
       </c>
       <c r="H104" s="37"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="104" t="s">
+    <row r="105" spans="1:8">
+      <c r="A105" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="37" t="s">
         <v>18</v>
       </c>
@@ -3991,14 +4003,14 @@
       </c>
       <c r="H105" s="37"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="104" t="s">
+    <row r="106" spans="1:8">
+      <c r="A106" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B106" s="104"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
       <c r="F106" s="37" t="s">
         <v>18</v>
       </c>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="H106" s="37"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="104" t="s">
+    <row r="107" spans="1:8">
+      <c r="A107" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B107" s="104"/>
-      <c r="C107" s="104"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
       <c r="F107" s="37" t="s">
         <v>18</v>
       </c>
@@ -4023,14 +4035,14 @@
       </c>
       <c r="H107" s="37"/>
     </row>
-    <row r="108" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="104" t="s">
+    <row r="108" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A108" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B108" s="104"/>
-      <c r="C108" s="104"/>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
       <c r="F108" s="37" t="s">
         <v>18</v>
       </c>
@@ -4039,28 +4051,28 @@
       </c>
       <c r="H108" s="37"/>
     </row>
-    <row r="109" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="109" t="s">
+    <row r="109" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A109" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B109" s="109"/>
-      <c r="C109" s="109"/>
-      <c r="D109" s="109"/>
-      <c r="E109" s="109"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="111"/>
+      <c r="D109" s="111"/>
+      <c r="E109" s="111"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H109" s="36"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="104" t="s">
+    <row r="110" spans="1:8">
+      <c r="A110" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B110" s="104"/>
-      <c r="C110" s="104"/>
-      <c r="D110" s="104"/>
-      <c r="E110" s="104"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
       <c r="F110" s="37" t="s">
         <v>18</v>
       </c>
@@ -4069,14 +4081,14 @@
       </c>
       <c r="H110" s="37"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="104" t="s">
+    <row r="111" spans="1:8">
+      <c r="A111" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B111" s="104"/>
-      <c r="C111" s="104"/>
-      <c r="D111" s="104"/>
-      <c r="E111" s="104"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
       <c r="F111" s="37" t="s">
         <v>18</v>
       </c>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="H111" s="37"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="104" t="s">
+    <row r="112" spans="1:8">
+      <c r="A112" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B112" s="104"/>
-      <c r="C112" s="104"/>
-      <c r="D112" s="104"/>
-      <c r="E112" s="104"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
       <c r="F112" s="37" t="s">
         <v>18</v>
       </c>
@@ -4101,14 +4113,14 @@
       </c>
       <c r="H112" s="37"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="104" t="s">
+    <row r="113" spans="1:8">
+      <c r="A113" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B113" s="104"/>
-      <c r="C113" s="104"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
       <c r="F113" s="37" t="s">
         <v>18</v>
       </c>
@@ -4117,14 +4129,14 @@
       </c>
       <c r="H113" s="37"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="104" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="104"/>
-      <c r="E114" s="104"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="37" t="s">
         <v>18</v>
       </c>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="H114" s="37"/>
     </row>
-    <row r="115" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="104" t="s">
+    <row r="115" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A115" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="104"/>
-      <c r="C115" s="104"/>
-      <c r="D115" s="104"/>
-      <c r="E115" s="104"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
       <c r="F115" s="37" t="s">
         <v>18</v>
       </c>
@@ -4149,28 +4161,28 @@
       </c>
       <c r="H115" s="37"/>
     </row>
-    <row r="116" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="109" t="s">
+    <row r="116" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A116" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B116" s="109"/>
-      <c r="C116" s="109"/>
-      <c r="D116" s="109"/>
-      <c r="E116" s="109"/>
+      <c r="B116" s="111"/>
+      <c r="C116" s="111"/>
+      <c r="D116" s="111"/>
+      <c r="E116" s="111"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H116" s="36"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="104" t="s">
+    <row r="117" spans="1:8">
+      <c r="A117" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B117" s="104"/>
-      <c r="C117" s="104"/>
-      <c r="D117" s="104"/>
-      <c r="E117" s="104"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
       <c r="F117" s="37" t="s">
         <v>18</v>
       </c>
@@ -4179,14 +4191,14 @@
       </c>
       <c r="H117" s="37"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="104" t="s">
+    <row r="118" spans="1:8">
+      <c r="A118" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B118" s="104"/>
-      <c r="C118" s="104"/>
-      <c r="D118" s="104"/>
-      <c r="E118" s="104"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
       <c r="F118" s="37" t="s">
         <v>18</v>
       </c>
@@ -4195,14 +4207,14 @@
       </c>
       <c r="H118" s="37"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="104" t="s">
+    <row r="119" spans="1:8">
+      <c r="A119" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="104"/>
-      <c r="C119" s="104"/>
-      <c r="D119" s="104"/>
-      <c r="E119" s="104"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
       <c r="F119" s="37" t="s">
         <v>18</v>
       </c>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="H119" s="37"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="104" t="s">
+    <row r="120" spans="1:8">
+      <c r="A120" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B120" s="104"/>
-      <c r="C120" s="104"/>
-      <c r="D120" s="104"/>
-      <c r="E120" s="104"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
       <c r="F120" s="37" t="s">
         <v>18</v>
       </c>
@@ -4227,28 +4239,28 @@
       </c>
       <c r="H120" s="37"/>
     </row>
-    <row r="121" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="109" t="s">
+    <row r="121" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A121" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B121" s="109"/>
-      <c r="C121" s="109"/>
-      <c r="D121" s="109"/>
-      <c r="E121" s="109"/>
+      <c r="B121" s="111"/>
+      <c r="C121" s="111"/>
+      <c r="D121" s="111"/>
+      <c r="E121" s="111"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H121" s="36"/>
     </row>
-    <row r="122" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="104" t="s">
+    <row r="122" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A122" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B122" s="104"/>
-      <c r="C122" s="104"/>
-      <c r="D122" s="104"/>
-      <c r="E122" s="104"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
       <c r="F122" s="37" t="s">
         <v>18</v>
       </c>
@@ -4257,14 +4269,14 @@
       </c>
       <c r="H122" s="37"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="104" t="s">
+    <row r="123" spans="1:8">
+      <c r="A123" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="104"/>
-      <c r="C123" s="104"/>
-      <c r="D123" s="104"/>
-      <c r="E123" s="104"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
       <c r="F123" s="37" t="s">
         <v>18</v>
       </c>
@@ -4273,14 +4285,14 @@
       </c>
       <c r="H123" s="37"/>
     </row>
-    <row r="124" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="104" t="s">
+    <row r="124" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A124" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
       <c r="F124" s="37" t="s">
         <v>18</v>
       </c>
@@ -4289,14 +4301,14 @@
       </c>
       <c r="H124" s="37"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="104" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="104"/>
-      <c r="E125" s="104"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
       <c r="F125" s="37" t="s">
         <v>18</v>
       </c>
@@ -4305,14 +4317,14 @@
       </c>
       <c r="H125" s="37"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="104" t="s">
+    <row r="126" spans="1:8">
+      <c r="A126" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B126" s="104"/>
-      <c r="C126" s="104"/>
-      <c r="D126" s="104"/>
-      <c r="E126" s="104"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
       <c r="F126" s="37" t="s">
         <v>18</v>
       </c>
@@ -4321,14 +4333,14 @@
       </c>
       <c r="H126" s="37"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="104" t="s">
+    <row r="127" spans="1:8">
+      <c r="A127" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B127" s="104"/>
-      <c r="C127" s="104"/>
-      <c r="D127" s="104"/>
-      <c r="E127" s="104"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
       <c r="F127" s="37" t="s">
         <v>18</v>
       </c>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="H127" s="37"/>
     </row>
-    <row r="128" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="104" t="s">
+    <row r="128" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A128" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B128" s="104"/>
-      <c r="C128" s="104"/>
-      <c r="D128" s="104"/>
-      <c r="E128" s="104"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
       <c r="F128" s="37" t="s">
         <v>18</v>
       </c>
@@ -4353,14 +4365,14 @@
       </c>
       <c r="H128" s="37"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="104" t="s">
+    <row r="129" spans="1:8">
+      <c r="A129" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B129" s="104"/>
-      <c r="C129" s="104"/>
-      <c r="D129" s="104"/>
-      <c r="E129" s="104"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
       <c r="F129" s="37" t="s">
         <v>18</v>
       </c>
@@ -4369,14 +4381,14 @@
       </c>
       <c r="H129" s="37"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="104" t="s">
+    <row r="130" spans="1:8">
+      <c r="A130" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="B130" s="104"/>
-      <c r="C130" s="104"/>
-      <c r="D130" s="104"/>
-      <c r="E130" s="104"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
       <c r="F130" s="37" t="s">
         <v>18</v>
       </c>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="H130" s="37"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="104" t="s">
+    <row r="131" spans="1:8">
+      <c r="A131" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="B131" s="104"/>
-      <c r="C131" s="104"/>
-      <c r="D131" s="104"/>
-      <c r="E131" s="104"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
       <c r="F131" s="37" t="s">
         <v>18</v>
       </c>
@@ -4401,14 +4413,14 @@
       </c>
       <c r="H131" s="37"/>
     </row>
-    <row r="132" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="104" t="s">
+    <row r="132" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A132" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B132" s="104"/>
-      <c r="C132" s="104"/>
-      <c r="D132" s="104"/>
-      <c r="E132" s="104"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
       <c r="F132" s="37" t="s">
         <v>18</v>
       </c>
@@ -4417,14 +4429,14 @@
       </c>
       <c r="H132" s="37"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="104" t="s">
+    <row r="133" spans="1:8">
+      <c r="A133" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B133" s="104"/>
-      <c r="C133" s="104"/>
-      <c r="D133" s="104"/>
-      <c r="E133" s="104"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
       <c r="F133" s="37" t="s">
         <v>18</v>
       </c>
@@ -4433,124 +4445,124 @@
       </c>
       <c r="H133" s="37"/>
     </row>
-    <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="16.5" customHeight="1">
       <c r="A134" s="49"/>
       <c r="B134" s="49"/>
-      <c r="C134" s="107" t="s">
+      <c r="C134" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D134" s="107"/>
-      <c r="E134" s="107"/>
-      <c r="F134" s="107"/>
-      <c r="G134" s="107"/>
-      <c r="H134" s="107"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D134" s="79"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="79"/>
+      <c r="H134" s="79"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="49"/>
       <c r="B135" s="49"/>
-      <c r="C135" s="108"/>
-      <c r="D135" s="108"/>
-      <c r="E135" s="108"/>
-      <c r="F135" s="108"/>
-      <c r="G135" s="108"/>
-      <c r="H135" s="108"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="63" t="s">
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="80"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="80"/>
+      <c r="H135" s="80"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="64"/>
-      <c r="C136" s="94" t="str">
+      <c r="B136" s="108"/>
+      <c r="C136" s="109" t="str">
         <f>$C$48</f>
         <v>FSO190786</v>
       </c>
-      <c r="D136" s="95"/>
-      <c r="E136" s="95"/>
-      <c r="F136" s="96"/>
-      <c r="G136" s="96"/>
-      <c r="H136" s="97"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="63" t="s">
+      <c r="D136" s="110"/>
+      <c r="E136" s="110"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="103"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B137" s="64"/>
-      <c r="C137" s="94" t="str">
+      <c r="B137" s="108"/>
+      <c r="C137" s="109" t="str">
         <f>$C$49</f>
         <v>CMFP190801</v>
       </c>
-      <c r="D137" s="95"/>
-      <c r="E137" s="95"/>
-      <c r="F137" s="96"/>
-      <c r="G137" s="96"/>
-      <c r="H137" s="97"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="63" t="s">
+      <c r="D137" s="110"/>
+      <c r="E137" s="110"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="77"/>
+      <c r="H137" s="103"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="64"/>
-      <c r="C138" s="94" t="str">
+      <c r="B138" s="108"/>
+      <c r="C138" s="109" t="str">
         <f>$C$50</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D138" s="95"/>
-      <c r="E138" s="95"/>
-      <c r="F138" s="96"/>
-      <c r="G138" s="96"/>
-      <c r="H138" s="97"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="63" t="s">
+      <c r="D138" s="110"/>
+      <c r="E138" s="110"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="103"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="64"/>
-      <c r="C139" s="94" t="str">
+      <c r="B139" s="108"/>
+      <c r="C139" s="109" t="str">
         <f>$C$51</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D139" s="95"/>
-      <c r="E139" s="95"/>
-      <c r="F139" s="96"/>
-      <c r="G139" s="96"/>
-      <c r="H139" s="97"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="63" t="s">
+      <c r="D139" s="110"/>
+      <c r="E139" s="110"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="103"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B140" s="64"/>
-      <c r="C140" s="94" t="str">
+      <c r="B140" s="108"/>
+      <c r="C140" s="109" t="str">
         <f>$C$52</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D140" s="95"/>
-      <c r="E140" s="95"/>
-      <c r="F140" s="96"/>
-      <c r="G140" s="96"/>
-      <c r="H140" s="97"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="110" t="s">
+      <c r="D140" s="110"/>
+      <c r="E140" s="110"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="77"/>
+      <c r="H140" s="103"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="111"/>
-      <c r="C141" s="112" t="str">
+      <c r="B141" s="112"/>
+      <c r="C141" s="113" t="str">
         <f>$C$53</f>
         <v>KVI</v>
       </c>
-      <c r="D141" s="113"/>
-      <c r="E141" s="113"/>
-      <c r="F141" s="114"/>
-      <c r="G141" s="114"/>
-      <c r="H141" s="115"/>
-    </row>
-    <row r="142" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A142" s="103"/>
-      <c r="B142" s="103"/>
-      <c r="C142" s="103"/>
-      <c r="D142" s="103"/>
-      <c r="E142" s="103"/>
+      <c r="D141" s="114"/>
+      <c r="E141" s="114"/>
+      <c r="F141" s="115"/>
+      <c r="G141" s="115"/>
+      <c r="H141" s="116"/>
+    </row>
+    <row r="142" spans="1:8" ht="33">
+      <c r="A142" s="117"/>
+      <c r="B142" s="117"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="117"/>
+      <c r="E142" s="117"/>
       <c r="F142" s="51" t="s">
         <v>63</v>
       </c>
@@ -4561,28 +4573,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="109" t="s">
+    <row r="143" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A143" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="B143" s="109"/>
-      <c r="C143" s="109"/>
-      <c r="D143" s="109"/>
-      <c r="E143" s="109"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="111"/>
+      <c r="D143" s="111"/>
+      <c r="E143" s="111"/>
       <c r="F143" s="36"/>
       <c r="G143" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H143" s="36"/>
     </row>
-    <row r="144" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="104" t="s">
+    <row r="144" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A144" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B144" s="104"/>
-      <c r="C144" s="104"/>
-      <c r="D144" s="104"/>
-      <c r="E144" s="104"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
       <c r="F144" s="37" t="s">
         <v>18</v>
       </c>
@@ -4591,14 +4603,14 @@
       </c>
       <c r="H144" s="37"/>
     </row>
-    <row r="145" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="104" t="s">
+    <row r="145" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A145" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="B145" s="104"/>
-      <c r="C145" s="104"/>
-      <c r="D145" s="104"/>
-      <c r="E145" s="104"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
       <c r="F145" s="37" t="s">
         <v>18</v>
       </c>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="H145" s="37"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="104" t="s">
+    <row r="146" spans="1:8">
+      <c r="A146" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B146" s="104"/>
-      <c r="C146" s="104"/>
-      <c r="D146" s="104"/>
-      <c r="E146" s="104"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
       <c r="F146" s="37" t="s">
         <v>18</v>
       </c>
@@ -4623,28 +4635,28 @@
       </c>
       <c r="H146" s="37"/>
     </row>
-    <row r="147" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="109" t="s">
+    <row r="147" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A147" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="B147" s="109"/>
-      <c r="C147" s="109"/>
-      <c r="D147" s="109"/>
-      <c r="E147" s="109"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="111"/>
+      <c r="D147" s="111"/>
+      <c r="E147" s="111"/>
       <c r="F147" s="36"/>
       <c r="G147" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H147" s="36"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="104" t="s">
+    <row r="148" spans="1:8">
+      <c r="A148" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B148" s="104"/>
-      <c r="C148" s="104"/>
-      <c r="D148" s="104"/>
-      <c r="E148" s="104"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
       <c r="F148" s="37" t="s">
         <v>18</v>
       </c>
@@ -4653,14 +4665,14 @@
       </c>
       <c r="H148" s="37"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="104" t="s">
+    <row r="149" spans="1:8">
+      <c r="A149" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B149" s="104"/>
-      <c r="C149" s="104"/>
-      <c r="D149" s="104"/>
-      <c r="E149" s="104"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
       <c r="F149" s="37" t="s">
         <v>18</v>
       </c>
@@ -4669,14 +4681,14 @@
       </c>
       <c r="H149" s="37"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="104" t="s">
+    <row r="150" spans="1:8">
+      <c r="A150" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B150" s="104"/>
-      <c r="C150" s="104"/>
-      <c r="D150" s="104"/>
-      <c r="E150" s="104"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
       <c r="F150" s="37" t="s">
         <v>18</v>
       </c>
@@ -4685,14 +4697,14 @@
       </c>
       <c r="H150" s="37"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="104" t="s">
+    <row r="151" spans="1:8">
+      <c r="A151" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="B151" s="104"/>
-      <c r="C151" s="104"/>
-      <c r="D151" s="104"/>
-      <c r="E151" s="104"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="85"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
       <c r="F151" s="37" t="s">
         <v>18</v>
       </c>
@@ -4701,14 +4713,14 @@
       </c>
       <c r="H151" s="37"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="104" t="s">
+    <row r="152" spans="1:8">
+      <c r="A152" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="B152" s="104"/>
-      <c r="C152" s="104"/>
-      <c r="D152" s="104"/>
-      <c r="E152" s="104"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
       <c r="F152" s="37" t="s">
         <v>18</v>
       </c>
@@ -4717,14 +4729,14 @@
       </c>
       <c r="H152" s="37"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="104" t="s">
+    <row r="153" spans="1:8">
+      <c r="A153" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B153" s="104"/>
-      <c r="C153" s="104"/>
-      <c r="D153" s="104"/>
-      <c r="E153" s="104"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
       <c r="F153" s="37" t="s">
         <v>18</v>
       </c>
@@ -4733,14 +4745,14 @@
       </c>
       <c r="H153" s="37"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="104" t="s">
+    <row r="154" spans="1:8">
+      <c r="A154" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B154" s="104"/>
-      <c r="C154" s="104"/>
-      <c r="D154" s="104"/>
-      <c r="E154" s="104"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
       <c r="F154" s="37" t="s">
         <v>18</v>
       </c>
@@ -4749,14 +4761,14 @@
       </c>
       <c r="H154" s="37"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="104" t="s">
+    <row r="155" spans="1:8">
+      <c r="A155" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B155" s="104"/>
-      <c r="C155" s="104"/>
-      <c r="D155" s="104"/>
-      <c r="E155" s="104"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
       <c r="F155" s="37" t="s">
         <v>18</v>
       </c>
@@ -4765,14 +4777,14 @@
       </c>
       <c r="H155" s="37"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="104" t="s">
+    <row r="156" spans="1:8">
+      <c r="A156" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B156" s="104"/>
-      <c r="C156" s="104"/>
-      <c r="D156" s="104"/>
-      <c r="E156" s="104"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
       <c r="F156" s="37" t="s">
         <v>18</v>
       </c>
@@ -4781,14 +4793,14 @@
       </c>
       <c r="H156" s="37"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="104" t="s">
+    <row r="157" spans="1:8">
+      <c r="A157" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B157" s="104"/>
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
       <c r="F157" s="37" t="s">
         <v>18</v>
       </c>
@@ -4797,14 +4809,14 @@
       </c>
       <c r="H157" s="37"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="104" t="s">
+    <row r="158" spans="1:8">
+      <c r="A158" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="104"/>
-      <c r="E158" s="104"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
       <c r="F158" s="37" t="s">
         <v>18</v>
       </c>
@@ -4813,14 +4825,14 @@
       </c>
       <c r="H158" s="37"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="104" t="s">
+    <row r="159" spans="1:8">
+      <c r="A159" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B159" s="104"/>
-      <c r="C159" s="104"/>
-      <c r="D159" s="104"/>
-      <c r="E159" s="104"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
       <c r="F159" s="37" t="s">
         <v>18</v>
       </c>
@@ -4829,14 +4841,14 @@
       </c>
       <c r="H159" s="37"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="104" t="s">
+    <row r="160" spans="1:8">
+      <c r="A160" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B160" s="104"/>
-      <c r="C160" s="104"/>
-      <c r="D160" s="104"/>
-      <c r="E160" s="104"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="85"/>
+      <c r="D160" s="85"/>
+      <c r="E160" s="85"/>
       <c r="F160" s="37" t="s">
         <v>18</v>
       </c>
@@ -4845,14 +4857,14 @@
       </c>
       <c r="H160" s="37"/>
     </row>
-    <row r="161" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="104" t="s">
+    <row r="161" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A161" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="B161" s="104"/>
-      <c r="C161" s="104"/>
-      <c r="D161" s="104"/>
-      <c r="E161" s="104"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
       <c r="F161" s="37" t="s">
         <v>18</v>
       </c>
@@ -4861,14 +4873,14 @@
       </c>
       <c r="H161" s="37"/>
     </row>
-    <row r="162" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="104" t="s">
+    <row r="162" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A162" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B162" s="104"/>
-      <c r="C162" s="104"/>
-      <c r="D162" s="104"/>
-      <c r="E162" s="104"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="85"/>
+      <c r="D162" s="85"/>
+      <c r="E162" s="85"/>
       <c r="F162" s="37" t="s">
         <v>18</v>
       </c>
@@ -4877,14 +4889,14 @@
       </c>
       <c r="H162" s="37"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="104" t="s">
+    <row r="163" spans="1:8">
+      <c r="A163" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="B163" s="104"/>
-      <c r="C163" s="104"/>
-      <c r="D163" s="104"/>
-      <c r="E163" s="104"/>
+      <c r="B163" s="85"/>
+      <c r="C163" s="85"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="85"/>
       <c r="F163" s="37" t="s">
         <v>18</v>
       </c>
@@ -4893,14 +4905,14 @@
       </c>
       <c r="H163" s="37"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="104" t="s">
+    <row r="164" spans="1:8">
+      <c r="A164" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="B164" s="104"/>
-      <c r="C164" s="104"/>
-      <c r="D164" s="104"/>
-      <c r="E164" s="104"/>
+      <c r="B164" s="85"/>
+      <c r="C164" s="85"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="85"/>
       <c r="F164" s="37" t="s">
         <v>18</v>
       </c>
@@ -4909,14 +4921,14 @@
       </c>
       <c r="H164" s="37"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="104" t="s">
+    <row r="165" spans="1:8">
+      <c r="A165" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B165" s="104"/>
-      <c r="C165" s="104"/>
-      <c r="D165" s="104"/>
-      <c r="E165" s="104"/>
+      <c r="B165" s="85"/>
+      <c r="C165" s="85"/>
+      <c r="D165" s="85"/>
+      <c r="E165" s="85"/>
       <c r="F165" s="37" t="s">
         <v>18</v>
       </c>
@@ -4925,14 +4937,14 @@
       </c>
       <c r="H165" s="37"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="104" t="s">
+    <row r="166" spans="1:8">
+      <c r="A166" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="104"/>
-      <c r="C166" s="104"/>
-      <c r="D166" s="104"/>
-      <c r="E166" s="104"/>
+      <c r="B166" s="85"/>
+      <c r="C166" s="85"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="85"/>
       <c r="F166" s="37" t="s">
         <v>18</v>
       </c>
@@ -4941,14 +4953,14 @@
       </c>
       <c r="H166" s="37"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="104" t="s">
+    <row r="167" spans="1:8">
+      <c r="A167" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B167" s="104"/>
-      <c r="C167" s="104"/>
-      <c r="D167" s="104"/>
-      <c r="E167" s="104"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="85"/>
       <c r="F167" s="37" t="s">
         <v>18</v>
       </c>
@@ -4957,14 +4969,14 @@
       </c>
       <c r="H167" s="37"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="104" t="s">
+    <row r="168" spans="1:8">
+      <c r="A168" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B168" s="104"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
+      <c r="B168" s="85"/>
+      <c r="C168" s="85"/>
+      <c r="D168" s="85"/>
+      <c r="E168" s="85"/>
       <c r="F168" s="37" t="s">
         <v>18</v>
       </c>
@@ -4973,14 +4985,14 @@
       </c>
       <c r="H168" s="37"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="104" t="s">
+    <row r="169" spans="1:8">
+      <c r="A169" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="B169" s="104"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="104"/>
-      <c r="E169" s="104"/>
+      <c r="B169" s="85"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="85"/>
       <c r="F169" s="37" t="s">
         <v>18</v>
       </c>
@@ -4989,14 +5001,14 @@
       </c>
       <c r="H169" s="37"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="104" t="s">
+    <row r="170" spans="1:8">
+      <c r="A170" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B170" s="104"/>
-      <c r="C170" s="104"/>
-      <c r="D170" s="104"/>
-      <c r="E170" s="104"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="85"/>
+      <c r="D170" s="85"/>
+      <c r="E170" s="85"/>
       <c r="F170" s="37" t="s">
         <v>18</v>
       </c>
@@ -5005,14 +5017,14 @@
       </c>
       <c r="H170" s="37"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="104" t="s">
+    <row r="171" spans="1:8">
+      <c r="A171" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B171" s="104"/>
-      <c r="C171" s="104"/>
-      <c r="D171" s="104"/>
-      <c r="E171" s="104"/>
+      <c r="B171" s="85"/>
+      <c r="C171" s="85"/>
+      <c r="D171" s="85"/>
+      <c r="E171" s="85"/>
       <c r="F171" s="37" t="s">
         <v>18</v>
       </c>
@@ -5021,14 +5033,14 @@
       </c>
       <c r="H171" s="37"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="104" t="s">
+    <row r="172" spans="1:8">
+      <c r="A172" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B172" s="104"/>
-      <c r="C172" s="104"/>
-      <c r="D172" s="104"/>
-      <c r="E172" s="104"/>
+      <c r="B172" s="85"/>
+      <c r="C172" s="85"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="85"/>
       <c r="F172" s="37" t="s">
         <v>18</v>
       </c>
@@ -5037,14 +5049,14 @@
       </c>
       <c r="H172" s="37"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="104" t="s">
+    <row r="173" spans="1:8">
+      <c r="A173" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B173" s="104"/>
-      <c r="C173" s="104"/>
-      <c r="D173" s="104"/>
-      <c r="E173" s="104"/>
+      <c r="B173" s="85"/>
+      <c r="C173" s="85"/>
+      <c r="D173" s="85"/>
+      <c r="E173" s="85"/>
       <c r="F173" s="37" t="s">
         <v>18</v>
       </c>
@@ -5053,14 +5065,14 @@
       </c>
       <c r="H173" s="37"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="104" t="s">
+    <row r="174" spans="1:8">
+      <c r="A174" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B174" s="104"/>
-      <c r="C174" s="104"/>
-      <c r="D174" s="104"/>
-      <c r="E174" s="104"/>
+      <c r="B174" s="85"/>
+      <c r="C174" s="85"/>
+      <c r="D174" s="85"/>
+      <c r="E174" s="85"/>
       <c r="F174" s="37" t="s">
         <v>18</v>
       </c>
@@ -5069,14 +5081,14 @@
       </c>
       <c r="H174" s="37"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="104" t="s">
+    <row r="175" spans="1:8">
+      <c r="A175" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B175" s="104"/>
-      <c r="C175" s="104"/>
-      <c r="D175" s="104"/>
-      <c r="E175" s="104"/>
+      <c r="B175" s="85"/>
+      <c r="C175" s="85"/>
+      <c r="D175" s="85"/>
+      <c r="E175" s="85"/>
       <c r="F175" s="37" t="s">
         <v>18</v>
       </c>
@@ -5085,1204 +5097,1504 @@
       </c>
       <c r="H175" s="37"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="105" t="s">
+    <row r="176" spans="1:8">
+      <c r="A176" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="B176" s="105"/>
-      <c r="C176" s="106"/>
-      <c r="D176" s="106"/>
-      <c r="E176" s="106"/>
-      <c r="F176" s="106"/>
-      <c r="G176" s="106"/>
-      <c r="H176" s="106"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B176" s="118"/>
+      <c r="C176" s="119"/>
+      <c r="D176" s="119"/>
+      <c r="E176" s="119"/>
+      <c r="F176" s="119"/>
+      <c r="G176" s="119"/>
+      <c r="H176" s="119"/>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="49"/>
       <c r="B177" s="49"/>
-      <c r="C177" s="107" t="s">
+      <c r="C177" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D177" s="107"/>
-      <c r="E177" s="107"/>
-      <c r="F177" s="107"/>
-      <c r="G177" s="107"/>
-      <c r="H177" s="107"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D177" s="79"/>
+      <c r="E177" s="79"/>
+      <c r="F177" s="79"/>
+      <c r="G177" s="79"/>
+      <c r="H177" s="79"/>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="49"/>
       <c r="B178" s="49"/>
-      <c r="C178" s="108"/>
-      <c r="D178" s="108"/>
-      <c r="E178" s="108"/>
-      <c r="F178" s="108"/>
-      <c r="G178" s="108"/>
-      <c r="H178" s="108"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="63" t="s">
+      <c r="C178" s="80"/>
+      <c r="D178" s="80"/>
+      <c r="E178" s="80"/>
+      <c r="F178" s="80"/>
+      <c r="G178" s="80"/>
+      <c r="H178" s="80"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B179" s="64"/>
-      <c r="C179" s="94" t="str">
+      <c r="B179" s="108"/>
+      <c r="C179" s="109" t="str">
         <f>$C$48</f>
         <v>FSO190786</v>
       </c>
-      <c r="D179" s="95"/>
-      <c r="E179" s="95"/>
-      <c r="F179" s="96"/>
-      <c r="G179" s="96"/>
-      <c r="H179" s="97"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="63" t="s">
+      <c r="D179" s="110"/>
+      <c r="E179" s="110"/>
+      <c r="F179" s="77"/>
+      <c r="G179" s="77"/>
+      <c r="H179" s="103"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="64"/>
-      <c r="C180" s="94" t="str">
+      <c r="B180" s="108"/>
+      <c r="C180" s="109" t="str">
         <f>$C$49</f>
         <v>CMFP190801</v>
       </c>
-      <c r="D180" s="95"/>
-      <c r="E180" s="95"/>
-      <c r="F180" s="96"/>
-      <c r="G180" s="96"/>
-      <c r="H180" s="97"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="63" t="s">
+      <c r="D180" s="110"/>
+      <c r="E180" s="110"/>
+      <c r="F180" s="77"/>
+      <c r="G180" s="77"/>
+      <c r="H180" s="103"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="64"/>
-      <c r="C181" s="94" t="str">
+      <c r="B181" s="108"/>
+      <c r="C181" s="109" t="str">
         <f>$C$50</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D181" s="95"/>
-      <c r="E181" s="95"/>
-      <c r="F181" s="96"/>
-      <c r="G181" s="96"/>
-      <c r="H181" s="97"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="63" t="s">
+      <c r="D181" s="110"/>
+      <c r="E181" s="110"/>
+      <c r="F181" s="77"/>
+      <c r="G181" s="77"/>
+      <c r="H181" s="103"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B182" s="64"/>
-      <c r="C182" s="94" t="str">
+      <c r="B182" s="108"/>
+      <c r="C182" s="109" t="str">
         <f>$C$51</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D182" s="95"/>
-      <c r="E182" s="95"/>
-      <c r="F182" s="96"/>
-      <c r="G182" s="96"/>
-      <c r="H182" s="97"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="63" t="s">
+      <c r="D182" s="110"/>
+      <c r="E182" s="110"/>
+      <c r="F182" s="77"/>
+      <c r="G182" s="77"/>
+      <c r="H182" s="103"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B183" s="64"/>
-      <c r="C183" s="94" t="str">
+      <c r="B183" s="108"/>
+      <c r="C183" s="109" t="str">
         <f>$C$52</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="95"/>
-      <c r="E183" s="95"/>
-      <c r="F183" s="96"/>
-      <c r="G183" s="96"/>
-      <c r="H183" s="97"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="63" t="s">
+      <c r="D183" s="110"/>
+      <c r="E183" s="110"/>
+      <c r="F183" s="77"/>
+      <c r="G183" s="77"/>
+      <c r="H183" s="103"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B184" s="64"/>
-      <c r="C184" s="94" t="str">
+      <c r="B184" s="108"/>
+      <c r="C184" s="109" t="str">
         <f>$C$53</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="95"/>
-      <c r="E184" s="95"/>
-      <c r="F184" s="96"/>
-      <c r="G184" s="98"/>
-      <c r="H184" s="99"/>
-    </row>
-    <row r="185" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="100" t="s">
+      <c r="D184" s="110"/>
+      <c r="E184" s="110"/>
+      <c r="F184" s="77"/>
+      <c r="G184" s="93"/>
+      <c r="H184" s="120"/>
+    </row>
+    <row r="185" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A185" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B185" s="101"/>
-      <c r="C185" s="100" t="s">
+      <c r="B185" s="122"/>
+      <c r="C185" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="D185" s="102"/>
-      <c r="E185" s="102"/>
+      <c r="D185" s="123"/>
+      <c r="E185" s="123"/>
       <c r="F185" s="38"/>
-      <c r="G185" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="H185" s="103"/>
-    </row>
-    <row r="186" spans="1:8" s="40" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="90" t="s">
+      <c r="G185" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" s="117"/>
+    </row>
+    <row r="186" spans="1:8" s="40" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A186" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="B186" s="91"/>
-      <c r="C186" s="91"/>
-      <c r="D186" s="91"/>
-      <c r="E186" s="92"/>
+      <c r="B186" s="129"/>
+      <c r="C186" s="129"/>
+      <c r="D186" s="129"/>
+      <c r="E186" s="130"/>
       <c r="F186" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="G186" s="93" t="s">
+      <c r="G186" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="H186" s="93"/>
-    </row>
-    <row r="187" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="78" t="s">
+      <c r="H186" s="131"/>
+    </row>
+    <row r="187" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A187" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="B187" s="79"/>
-      <c r="C187" s="79"/>
-      <c r="D187" s="79"/>
-      <c r="E187" s="80"/>
+      <c r="B187" s="125"/>
+      <c r="C187" s="125"/>
+      <c r="D187" s="125"/>
+      <c r="E187" s="126"/>
       <c r="F187" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G187" s="81" t="s">
+      <c r="G187" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H187" s="81"/>
-    </row>
-    <row r="188" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="78" t="s">
+      <c r="H187" s="127"/>
+    </row>
+    <row r="188" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A188" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="B188" s="79"/>
-      <c r="C188" s="79"/>
-      <c r="D188" s="79"/>
-      <c r="E188" s="80"/>
+      <c r="B188" s="125"/>
+      <c r="C188" s="125"/>
+      <c r="D188" s="125"/>
+      <c r="E188" s="126"/>
       <c r="F188" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G188" s="81" t="s">
+      <c r="G188" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H188" s="81"/>
-    </row>
-    <row r="189" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="78" t="s">
+      <c r="H188" s="127"/>
+    </row>
+    <row r="189" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A189" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="B189" s="79"/>
-      <c r="C189" s="79"/>
-      <c r="D189" s="79"/>
-      <c r="E189" s="80"/>
+      <c r="B189" s="125"/>
+      <c r="C189" s="125"/>
+      <c r="D189" s="125"/>
+      <c r="E189" s="126"/>
       <c r="F189" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G189" s="81" t="s">
+      <c r="G189" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H189" s="81"/>
-    </row>
-    <row r="190" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="78" t="s">
+      <c r="H189" s="127"/>
+    </row>
+    <row r="190" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A190" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="B190" s="79"/>
-      <c r="C190" s="79"/>
-      <c r="D190" s="79"/>
-      <c r="E190" s="80"/>
+      <c r="B190" s="125"/>
+      <c r="C190" s="125"/>
+      <c r="D190" s="125"/>
+      <c r="E190" s="126"/>
       <c r="F190" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G190" s="81" t="s">
+      <c r="G190" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H190" s="81"/>
-    </row>
-    <row r="191" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="78" t="s">
+      <c r="H190" s="127"/>
+    </row>
+    <row r="191" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A191" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="B191" s="79"/>
-      <c r="C191" s="79"/>
-      <c r="D191" s="79"/>
-      <c r="E191" s="80"/>
+      <c r="B191" s="125"/>
+      <c r="C191" s="125"/>
+      <c r="D191" s="125"/>
+      <c r="E191" s="126"/>
       <c r="F191" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G191" s="81" t="s">
+      <c r="G191" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H191" s="81"/>
-    </row>
-    <row r="192" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="78" t="s">
+      <c r="H191" s="127"/>
+    </row>
+    <row r="192" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A192" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="B192" s="79"/>
-      <c r="C192" s="79"/>
-      <c r="D192" s="79"/>
-      <c r="E192" s="80"/>
+      <c r="B192" s="125"/>
+      <c r="C192" s="125"/>
+      <c r="D192" s="125"/>
+      <c r="E192" s="126"/>
       <c r="F192" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G192" s="81" t="s">
+      <c r="G192" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H192" s="81"/>
-    </row>
-    <row r="193" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="78" t="s">
+      <c r="H192" s="127"/>
+    </row>
+    <row r="193" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A193" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="B193" s="79"/>
-      <c r="C193" s="79"/>
-      <c r="D193" s="79"/>
-      <c r="E193" s="80"/>
+      <c r="B193" s="125"/>
+      <c r="C193" s="125"/>
+      <c r="D193" s="125"/>
+      <c r="E193" s="126"/>
       <c r="F193" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G193" s="81" t="s">
+      <c r="G193" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H193" s="81"/>
-    </row>
-    <row r="194" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="78" t="s">
+      <c r="H193" s="127"/>
+    </row>
+    <row r="194" spans="1:8" ht="20.85" customHeight="1">
+      <c r="A194" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" s="125"/>
+      <c r="C194" s="125"/>
+      <c r="D194" s="125"/>
+      <c r="E194" s="126"/>
+      <c r="F194" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="H194" s="127"/>
+    </row>
+    <row r="195" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A195" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="B194" s="79"/>
-      <c r="C194" s="79"/>
-      <c r="D194" s="79"/>
-      <c r="E194" s="80"/>
-      <c r="F194" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" s="81" t="s">
+      <c r="B195" s="125"/>
+      <c r="C195" s="125"/>
+      <c r="D195" s="125"/>
+      <c r="E195" s="126"/>
+      <c r="F195" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H194" s="81"/>
-    </row>
-    <row r="195" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="78" t="s">
+      <c r="H195" s="127"/>
+    </row>
+    <row r="196" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A196" s="124" t="s">
         <v>143</v>
       </c>
-      <c r="B195" s="79"/>
-      <c r="C195" s="79"/>
-      <c r="D195" s="79"/>
-      <c r="E195" s="80"/>
-      <c r="F195" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" s="81" t="s">
+      <c r="B196" s="125"/>
+      <c r="C196" s="125"/>
+      <c r="D196" s="125"/>
+      <c r="E196" s="126"/>
+      <c r="F196" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H195" s="81"/>
-    </row>
-    <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="78" t="s">
+      <c r="H196" s="127"/>
+    </row>
+    <row r="197" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A197" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="B196" s="79"/>
-      <c r="C196" s="79"/>
-      <c r="D196" s="79"/>
-      <c r="E196" s="80"/>
-      <c r="F196" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" s="81" t="s">
+      <c r="B197" s="125"/>
+      <c r="C197" s="125"/>
+      <c r="D197" s="125"/>
+      <c r="E197" s="126"/>
+      <c r="F197" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H196" s="81"/>
-    </row>
-    <row r="197" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="78" t="s">
+      <c r="H197" s="127"/>
+    </row>
+    <row r="198" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A198" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="B197" s="79"/>
-      <c r="C197" s="79"/>
-      <c r="D197" s="79"/>
-      <c r="E197" s="80"/>
-      <c r="F197" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" s="81" t="s">
+      <c r="B198" s="125"/>
+      <c r="C198" s="125"/>
+      <c r="D198" s="125"/>
+      <c r="E198" s="126"/>
+      <c r="F198" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H197" s="81"/>
-    </row>
-    <row r="198" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="78" t="s">
+      <c r="H198" s="127"/>
+    </row>
+    <row r="199" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A199" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="B198" s="79"/>
-      <c r="C198" s="79"/>
-      <c r="D198" s="79"/>
-      <c r="E198" s="80"/>
-      <c r="F198" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" s="81" t="s">
+      <c r="B199" s="125"/>
+      <c r="C199" s="125"/>
+      <c r="D199" s="125"/>
+      <c r="E199" s="126"/>
+      <c r="F199" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H198" s="81"/>
-    </row>
-    <row r="199" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="78" t="s">
+      <c r="H199" s="127"/>
+    </row>
+    <row r="200" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A200" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B199" s="79"/>
-      <c r="C199" s="79"/>
-      <c r="D199" s="79"/>
-      <c r="E199" s="80"/>
-      <c r="F199" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" s="81" t="s">
+      <c r="B200" s="125"/>
+      <c r="C200" s="125"/>
+      <c r="D200" s="125"/>
+      <c r="E200" s="126"/>
+      <c r="F200" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H199" s="81"/>
-    </row>
-    <row r="200" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="78" t="s">
+      <c r="H200" s="127"/>
+    </row>
+    <row r="201" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A201" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="B200" s="79"/>
-      <c r="C200" s="79"/>
-      <c r="D200" s="79"/>
-      <c r="E200" s="80"/>
-      <c r="F200" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" s="81" t="s">
+      <c r="B201" s="125"/>
+      <c r="C201" s="125"/>
+      <c r="D201" s="125"/>
+      <c r="E201" s="126"/>
+      <c r="F201" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H200" s="81"/>
-    </row>
-    <row r="201" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="78" t="s">
+      <c r="H201" s="127"/>
+    </row>
+    <row r="202" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A202" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="B201" s="79"/>
-      <c r="C201" s="79"/>
-      <c r="D201" s="79"/>
-      <c r="E201" s="80"/>
-      <c r="F201" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" s="81" t="s">
+      <c r="B202" s="125"/>
+      <c r="C202" s="125"/>
+      <c r="D202" s="125"/>
+      <c r="E202" s="126"/>
+      <c r="F202" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H201" s="81"/>
-    </row>
-    <row r="202" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="78" t="s">
+      <c r="H202" s="127"/>
+    </row>
+    <row r="203" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A203" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="B202" s="79"/>
-      <c r="C202" s="79"/>
-      <c r="D202" s="79"/>
-      <c r="E202" s="80"/>
-      <c r="F202" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" s="81" t="s">
+      <c r="B203" s="125"/>
+      <c r="C203" s="125"/>
+      <c r="D203" s="125"/>
+      <c r="E203" s="126"/>
+      <c r="F203" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H202" s="81"/>
-    </row>
-    <row r="203" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="78" t="s">
+      <c r="H203" s="127"/>
+    </row>
+    <row r="204" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A204" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="B203" s="79"/>
-      <c r="C203" s="79"/>
-      <c r="D203" s="79"/>
-      <c r="E203" s="80"/>
-      <c r="F203" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" s="81" t="s">
+      <c r="B204" s="125"/>
+      <c r="C204" s="125"/>
+      <c r="D204" s="125"/>
+      <c r="E204" s="126"/>
+      <c r="F204" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H203" s="81"/>
-    </row>
-    <row r="204" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="78" t="s">
+      <c r="H204" s="127"/>
+    </row>
+    <row r="205" spans="1:8" ht="20.85" customHeight="1">
+      <c r="A205" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" s="125"/>
+      <c r="C205" s="125"/>
+      <c r="D205" s="125"/>
+      <c r="E205" s="126"/>
+      <c r="F205" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="H205" s="127"/>
+    </row>
+    <row r="206" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A206" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="B204" s="79"/>
-      <c r="C204" s="79"/>
-      <c r="D204" s="79"/>
-      <c r="E204" s="80"/>
-      <c r="F204" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" s="81" t="s">
+      <c r="B206" s="125"/>
+      <c r="C206" s="125"/>
+      <c r="D206" s="125"/>
+      <c r="E206" s="126"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H204" s="81"/>
-    </row>
-    <row r="205" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="78" t="s">
+      <c r="H206" s="127"/>
+    </row>
+    <row r="207" spans="1:8" ht="20.85" customHeight="1">
+      <c r="A207" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="B207" s="125"/>
+      <c r="C207" s="125"/>
+      <c r="D207" s="125"/>
+      <c r="E207" s="126"/>
+      <c r="F207" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="H207" s="127"/>
+    </row>
+    <row r="208" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A208" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="B205" s="79"/>
-      <c r="C205" s="79"/>
-      <c r="D205" s="79"/>
-      <c r="E205" s="80"/>
-      <c r="F205" s="26"/>
-      <c r="G205" s="81" t="s">
+      <c r="B208" s="125"/>
+      <c r="C208" s="125"/>
+      <c r="D208" s="125"/>
+      <c r="E208" s="126"/>
+      <c r="F208" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H205" s="81"/>
-    </row>
-    <row r="206" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="78" t="s">
+      <c r="H208" s="127"/>
+    </row>
+    <row r="209" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A209" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="B206" s="79"/>
-      <c r="C206" s="79"/>
-      <c r="D206" s="79"/>
-      <c r="E206" s="80"/>
-      <c r="F206" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" s="81" t="s">
+      <c r="B209" s="125"/>
+      <c r="C209" s="125"/>
+      <c r="D209" s="125"/>
+      <c r="E209" s="126"/>
+      <c r="F209" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H206" s="81"/>
-    </row>
-    <row r="207" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="78" t="s">
+      <c r="H209" s="127"/>
+    </row>
+    <row r="210" spans="1:8" ht="20.85" customHeight="1">
+      <c r="A210" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B210" s="125"/>
+      <c r="C210" s="125"/>
+      <c r="D210" s="125"/>
+      <c r="E210" s="126"/>
+      <c r="F210" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="H210" s="127"/>
+    </row>
+    <row r="211" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A211" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="B207" s="79"/>
-      <c r="C207" s="79"/>
-      <c r="D207" s="79"/>
-      <c r="E207" s="80"/>
-      <c r="F207" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" s="81" t="s">
+      <c r="B211" s="125"/>
+      <c r="C211" s="125"/>
+      <c r="D211" s="125"/>
+      <c r="E211" s="126"/>
+      <c r="F211" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H207" s="81"/>
-    </row>
-    <row r="208" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="78" t="s">
+      <c r="H211" s="127"/>
+    </row>
+    <row r="212" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A212" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="B208" s="79"/>
-      <c r="C208" s="79"/>
-      <c r="D208" s="79"/>
-      <c r="E208" s="80"/>
-      <c r="F208" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" s="81" t="s">
+      <c r="B212" s="133"/>
+      <c r="C212" s="133"/>
+      <c r="D212" s="133"/>
+      <c r="E212" s="134"/>
+      <c r="F212" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H208" s="81"/>
-    </row>
-    <row r="209" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="78" t="s">
+      <c r="H212" s="127"/>
+    </row>
+    <row r="213" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A213" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="B209" s="79"/>
-      <c r="C209" s="79"/>
-      <c r="D209" s="79"/>
-      <c r="E209" s="80"/>
-      <c r="F209" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" s="81" t="s">
+      <c r="B213" s="125"/>
+      <c r="C213" s="125"/>
+      <c r="D213" s="125"/>
+      <c r="E213" s="126"/>
+      <c r="F213" s="26"/>
+      <c r="G213" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H209" s="81"/>
-    </row>
-    <row r="210" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="78" t="s">
+      <c r="H213" s="127"/>
+    </row>
+    <row r="214" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A214" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="B210" s="79"/>
-      <c r="C210" s="79"/>
-      <c r="D210" s="79"/>
-      <c r="E210" s="80"/>
-      <c r="F210" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" s="81" t="s">
+      <c r="B214" s="125"/>
+      <c r="C214" s="125"/>
+      <c r="D214" s="125"/>
+      <c r="E214" s="126"/>
+      <c r="F214" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G214" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H210" s="81"/>
-    </row>
-    <row r="211" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="87" t="s">
+      <c r="H214" s="127"/>
+    </row>
+    <row r="215" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A215" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="B215" s="125"/>
+      <c r="C215" s="125"/>
+      <c r="D215" s="125"/>
+      <c r="E215" s="126"/>
+      <c r="F215" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B211" s="88"/>
-      <c r="C211" s="88"/>
-      <c r="D211" s="88"/>
-      <c r="E211" s="89"/>
-      <c r="F211" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" s="81" t="s">
+      <c r="G215" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H211" s="81"/>
-    </row>
-    <row r="212" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="78" t="s">
+      <c r="H215" s="127"/>
+    </row>
+    <row r="216" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A216" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="B216" s="125"/>
+      <c r="C216" s="125"/>
+      <c r="D216" s="125"/>
+      <c r="E216" s="126"/>
+      <c r="F216" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G216" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="H216" s="127"/>
+    </row>
+    <row r="217" spans="1:8" ht="36" customHeight="1">
+      <c r="A217" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="B212" s="79"/>
-      <c r="C212" s="79"/>
-      <c r="D212" s="79"/>
-      <c r="E212" s="80"/>
-      <c r="F212" s="26"/>
-      <c r="G212" s="81" t="s">
+      <c r="B217" s="125"/>
+      <c r="C217" s="125"/>
+      <c r="D217" s="125"/>
+      <c r="E217" s="126"/>
+      <c r="F217" s="26"/>
+      <c r="G217" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H212" s="81"/>
-    </row>
-    <row r="213" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="78" t="s">
+      <c r="H217" s="127"/>
+    </row>
+    <row r="218" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A218" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="B213" s="79"/>
-      <c r="C213" s="79"/>
-      <c r="D213" s="79"/>
-      <c r="E213" s="80"/>
-      <c r="F213" s="41" t="s">
+      <c r="B218" s="125"/>
+      <c r="C218" s="125"/>
+      <c r="D218" s="125"/>
+      <c r="E218" s="126"/>
+      <c r="F218" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="H218" s="127"/>
+    </row>
+    <row r="219" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A219" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G213" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="H213" s="81"/>
-    </row>
-    <row r="214" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="B214" s="79"/>
-      <c r="C214" s="79"/>
-      <c r="D214" s="79"/>
-      <c r="E214" s="80"/>
-      <c r="F214" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G214" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="H214" s="81"/>
-    </row>
-    <row r="215" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="B215" s="79"/>
-      <c r="C215" s="79"/>
-      <c r="D215" s="79"/>
-      <c r="E215" s="80"/>
-      <c r="F215" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G215" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="H215" s="81"/>
-    </row>
-    <row r="216" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B216" s="79"/>
-      <c r="C216" s="79"/>
-      <c r="D216" s="79"/>
-      <c r="E216" s="80"/>
-      <c r="F216" s="26"/>
-      <c r="G216" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="H216" s="81"/>
-    </row>
-    <row r="217" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="B217" s="79"/>
-      <c r="C217" s="79"/>
-      <c r="D217" s="79"/>
-      <c r="E217" s="80"/>
-      <c r="F217" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="H217" s="81"/>
-    </row>
-    <row r="218" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B218" s="83"/>
-      <c r="C218" s="83"/>
-      <c r="D218" s="83"/>
-      <c r="E218" s="83"/>
-      <c r="F218" s="83"/>
-      <c r="G218" s="83"/>
-      <c r="H218" s="84"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="49"/>
-      <c r="B219" s="49"/>
-      <c r="C219" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="D219" s="85"/>
-      <c r="E219" s="85"/>
-      <c r="F219" s="85"/>
-      <c r="G219" s="85"/>
-      <c r="H219" s="85"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B219" s="140"/>
+      <c r="C219" s="140"/>
+      <c r="D219" s="140"/>
+      <c r="E219" s="140"/>
+      <c r="F219" s="140"/>
+      <c r="G219" s="140"/>
+      <c r="H219" s="141"/>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="49"/>
       <c r="B220" s="49"/>
-      <c r="C220" s="86"/>
-      <c r="D220" s="86"/>
-      <c r="E220" s="86"/>
-      <c r="F220" s="86"/>
-      <c r="G220" s="86"/>
-      <c r="H220" s="86"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="63" t="s">
+      <c r="C220" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="D220" s="142"/>
+      <c r="E220" s="142"/>
+      <c r="F220" s="142"/>
+      <c r="G220" s="142"/>
+      <c r="H220" s="142"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="49"/>
+      <c r="B221" s="49"/>
+      <c r="C221" s="143"/>
+      <c r="D221" s="143"/>
+      <c r="E221" s="143"/>
+      <c r="F221" s="143"/>
+      <c r="G221" s="143"/>
+      <c r="H221" s="143"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B221" s="64"/>
-      <c r="C221" s="65" t="str">
+      <c r="B222" s="108"/>
+      <c r="C222" s="135" t="str">
         <f>$C$48</f>
         <v>FSO190786</v>
       </c>
-      <c r="D221" s="66"/>
-      <c r="E221" s="66"/>
-      <c r="F221" s="67"/>
-      <c r="G221" s="67"/>
-      <c r="H221" s="68"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="63" t="s">
+      <c r="D222" s="136"/>
+      <c r="E222" s="136"/>
+      <c r="F222" s="137"/>
+      <c r="G222" s="137"/>
+      <c r="H222" s="138"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B222" s="64"/>
-      <c r="C222" s="65" t="str">
+      <c r="B223" s="108"/>
+      <c r="C223" s="135" t="str">
         <f>$C$49</f>
         <v>CMFP190801</v>
       </c>
-      <c r="D222" s="66"/>
-      <c r="E222" s="66"/>
-      <c r="F222" s="67"/>
-      <c r="G222" s="67"/>
-      <c r="H222" s="68"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="63" t="s">
+      <c r="D223" s="136"/>
+      <c r="E223" s="136"/>
+      <c r="F223" s="137"/>
+      <c r="G223" s="137"/>
+      <c r="H223" s="138"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B223" s="64"/>
-      <c r="C223" s="65" t="str">
+      <c r="B224" s="108"/>
+      <c r="C224" s="135" t="str">
         <f>$C$50</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D223" s="66"/>
-      <c r="E223" s="66"/>
-      <c r="F223" s="67"/>
-      <c r="G223" s="67"/>
-      <c r="H223" s="68"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="63" t="s">
+      <c r="D224" s="136"/>
+      <c r="E224" s="136"/>
+      <c r="F224" s="137"/>
+      <c r="G224" s="137"/>
+      <c r="H224" s="138"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B224" s="64"/>
-      <c r="C224" s="65" t="str">
+      <c r="B225" s="108"/>
+      <c r="C225" s="135" t="str">
         <f>$C$51</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D224" s="66"/>
-      <c r="E224" s="66"/>
-      <c r="F224" s="67"/>
-      <c r="G224" s="67"/>
-      <c r="H224" s="68"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="63" t="s">
+      <c r="D225" s="136"/>
+      <c r="E225" s="136"/>
+      <c r="F225" s="137"/>
+      <c r="G225" s="137"/>
+      <c r="H225" s="138"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B225" s="64"/>
-      <c r="C225" s="69" t="str">
+      <c r="B226" s="108"/>
+      <c r="C226" s="151" t="str">
         <f>$C$52</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D225" s="70"/>
-      <c r="E225" s="70"/>
-      <c r="F225" s="71"/>
-      <c r="G225" s="71"/>
-      <c r="H225" s="72"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="63" t="s">
+      <c r="D226" s="152"/>
+      <c r="E226" s="152"/>
+      <c r="F226" s="153"/>
+      <c r="G226" s="153"/>
+      <c r="H226" s="154"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B226" s="73"/>
-      <c r="C226" s="74" t="str">
+      <c r="B227" s="155"/>
+      <c r="C227" s="156" t="str">
         <f>$C$53</f>
         <v>KVI</v>
       </c>
-      <c r="D226" s="75"/>
-      <c r="E226" s="75"/>
-      <c r="F226" s="76"/>
-      <c r="G226" s="76"/>
-      <c r="H226" s="77"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A228" s="57" t="s">
+      <c r="D227" s="157"/>
+      <c r="E227" s="157"/>
+      <c r="F227" s="158"/>
+      <c r="G227" s="158"/>
+      <c r="H227" s="159"/>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="B229" s="145"/>
+      <c r="C229" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="D229" s="146"/>
+      <c r="E229" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F229" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B228" s="58"/>
-      <c r="C228" s="59" t="s">
+      <c r="G229" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D228" s="59"/>
-      <c r="E228" s="53" t="s">
+      <c r="H229" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="F228" s="53" t="s">
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="147" t="s">
         <v>170</v>
       </c>
-      <c r="G228" s="53" t="s">
+      <c r="B230" s="148"/>
+      <c r="C230" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="H228" s="42" t="s">
+      <c r="D230" s="149"/>
+      <c r="E230" s="54" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" s="60" t="s">
+      <c r="F230" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="B229" s="61"/>
-      <c r="C229" s="62" t="s">
+      <c r="G230" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D229" s="62"/>
-      <c r="E229" s="54" t="s">
+      <c r="H230" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F229" s="54" t="s">
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="150" t="s">
         <v>176</v>
       </c>
-      <c r="G229" s="54" t="s">
+      <c r="B231" s="150"/>
+      <c r="C231" s="150" t="s">
         <v>177</v>
       </c>
-      <c r="H229" s="43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B230" s="56"/>
-      <c r="C230" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="D230" s="56"/>
-      <c r="E230" s="36"/>
-      <c r="F230" s="36"/>
-      <c r="G230" s="36"/>
-      <c r="H230" s="36"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A231" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="B231" s="56"/>
-      <c r="C231" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="D231" s="56"/>
+      <c r="D231" s="150"/>
       <c r="E231" s="36"/>
       <c r="F231" s="36"/>
       <c r="G231" s="36"/>
       <c r="H231" s="36"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A232" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B232" s="56"/>
-      <c r="C232" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="D232" s="56"/>
+    <row r="232" spans="1:8">
+      <c r="A232" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="B232" s="150"/>
+      <c r="C232" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="D232" s="150"/>
       <c r="E232" s="36"/>
       <c r="F232" s="36"/>
       <c r="G232" s="36"/>
       <c r="H232" s="36"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A233" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="B233" s="56"/>
-      <c r="C233" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="D233" s="56"/>
+    <row r="233" spans="1:8">
+      <c r="A233" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="B233" s="150"/>
+      <c r="C233" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="D233" s="150"/>
       <c r="E233" s="36"/>
       <c r="F233" s="36"/>
       <c r="G233" s="36"/>
       <c r="H233" s="36"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A234" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="B234" s="56"/>
-      <c r="C234" s="56" t="s">
+    <row r="234" spans="1:8">
+      <c r="A234" s="150" t="s">
         <v>180</v>
       </c>
-      <c r="D234" s="56"/>
+      <c r="B234" s="150"/>
+      <c r="C234" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="D234" s="150"/>
       <c r="E234" s="36"/>
       <c r="F234" s="36"/>
       <c r="G234" s="36"/>
       <c r="H234" s="36"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A235" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B235" s="56"/>
-      <c r="C235" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="D235" s="56"/>
+    <row r="235" spans="1:8">
+      <c r="A235" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="B235" s="150"/>
+      <c r="C235" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="D235" s="150"/>
       <c r="E235" s="36"/>
       <c r="F235" s="36"/>
       <c r="G235" s="36"/>
       <c r="H235" s="36"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A236" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="B236" s="56"/>
-      <c r="C236" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D236" s="56"/>
+    <row r="236" spans="1:8">
+      <c r="A236" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="B236" s="150"/>
+      <c r="C236" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="D236" s="150"/>
       <c r="E236" s="36"/>
       <c r="F236" s="36"/>
       <c r="G236" s="36"/>
       <c r="H236" s="36"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A237" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="B237" s="56"/>
-      <c r="C237" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D237" s="56"/>
+    <row r="237" spans="1:8">
+      <c r="A237" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="B237" s="150"/>
+      <c r="C237" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D237" s="150"/>
       <c r="E237" s="36"/>
       <c r="F237" s="36"/>
       <c r="G237" s="36"/>
       <c r="H237" s="36"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A238" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="B238" s="56"/>
-      <c r="C238" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D238" s="56"/>
+    <row r="238" spans="1:8">
+      <c r="A238" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="B238" s="150"/>
+      <c r="C238" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D238" s="150"/>
       <c r="E238" s="36"/>
       <c r="F238" s="36"/>
       <c r="G238" s="36"/>
       <c r="H238" s="36"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A239" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="B239" s="56"/>
-      <c r="C239" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D239" s="56"/>
+    <row r="239" spans="1:8">
+      <c r="A239" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="B239" s="150"/>
+      <c r="C239" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D239" s="150"/>
       <c r="E239" s="36"/>
       <c r="F239" s="36"/>
       <c r="G239" s="36"/>
       <c r="H239" s="36"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A240" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="B240" s="56"/>
-      <c r="C240" s="56" t="s">
+    <row r="240" spans="1:8">
+      <c r="A240" s="150" t="s">
         <v>186</v>
       </c>
-      <c r="D240" s="56"/>
+      <c r="B240" s="150"/>
+      <c r="C240" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D240" s="150"/>
       <c r="E240" s="36"/>
       <c r="F240" s="36"/>
       <c r="G240" s="36"/>
       <c r="H240" s="36"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A241" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="B241" s="56"/>
-      <c r="C241" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D241" s="56"/>
+    <row r="241" spans="1:8">
+      <c r="A241" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="B241" s="150"/>
+      <c r="C241" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D241" s="150"/>
       <c r="E241" s="36"/>
       <c r="F241" s="36"/>
       <c r="G241" s="36"/>
       <c r="H241" s="36"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A242" s="55"/>
-      <c r="B242" s="55"/>
-      <c r="C242" s="55"/>
-      <c r="D242" s="55"/>
+    <row r="242" spans="1:8">
+      <c r="A242" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="B242" s="150"/>
+      <c r="C242" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D242" s="150"/>
       <c r="E242" s="36"/>
       <c r="F242" s="36"/>
       <c r="G242" s="36"/>
       <c r="H242" s="36"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A243" s="55"/>
-      <c r="B243" s="55"/>
-      <c r="C243" s="55"/>
-      <c r="D243" s="55"/>
+    <row r="243" spans="1:8">
+      <c r="A243" s="160"/>
+      <c r="B243" s="160"/>
+      <c r="C243" s="160"/>
+      <c r="D243" s="160"/>
       <c r="E243" s="36"/>
       <c r="F243" s="36"/>
       <c r="G243" s="36"/>
       <c r="H243" s="36"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244" s="55"/>
-      <c r="B244" s="55"/>
-      <c r="C244" s="55"/>
-      <c r="D244" s="55"/>
+    <row r="244" spans="1:8">
+      <c r="A244" s="160"/>
+      <c r="B244" s="160"/>
+      <c r="C244" s="160"/>
+      <c r="D244" s="160"/>
       <c r="E244" s="36"/>
       <c r="F244" s="36"/>
       <c r="G244" s="36"/>
       <c r="H244" s="36"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A245" s="55"/>
-      <c r="B245" s="55"/>
-      <c r="C245" s="55"/>
-      <c r="D245" s="55"/>
+    <row r="245" spans="1:8">
+      <c r="A245" s="160"/>
+      <c r="B245" s="160"/>
+      <c r="C245" s="160"/>
+      <c r="D245" s="160"/>
       <c r="E245" s="36"/>
       <c r="F245" s="36"/>
       <c r="G245" s="36"/>
       <c r="H245" s="36"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A246" s="55"/>
-      <c r="B246" s="55"/>
-      <c r="C246" s="55"/>
-      <c r="D246" s="55"/>
+    <row r="246" spans="1:8">
+      <c r="A246" s="160"/>
+      <c r="B246" s="160"/>
+      <c r="C246" s="160"/>
+      <c r="D246" s="160"/>
       <c r="E246" s="36"/>
       <c r="F246" s="36"/>
       <c r="G246" s="36"/>
       <c r="H246" s="36"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A247" s="55"/>
-      <c r="B247" s="55"/>
-      <c r="C247" s="55"/>
-      <c r="D247" s="55"/>
+    <row r="247" spans="1:8">
+      <c r="A247" s="160"/>
+      <c r="B247" s="160"/>
+      <c r="C247" s="160"/>
+      <c r="D247" s="160"/>
       <c r="E247" s="36"/>
       <c r="F247" s="36"/>
       <c r="G247" s="36"/>
       <c r="H247" s="36"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A248" s="55"/>
-      <c r="B248" s="55"/>
-      <c r="C248" s="55"/>
-      <c r="D248" s="55"/>
+    <row r="248" spans="1:8">
+      <c r="A248" s="160"/>
+      <c r="B248" s="160"/>
+      <c r="C248" s="160"/>
+      <c r="D248" s="160"/>
       <c r="E248" s="36"/>
       <c r="F248" s="36"/>
       <c r="G248" s="36"/>
       <c r="H248" s="36"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A249" s="55"/>
-      <c r="B249" s="55"/>
-      <c r="C249" s="55"/>
-      <c r="D249" s="55"/>
+    <row r="249" spans="1:8">
+      <c r="A249" s="160"/>
+      <c r="B249" s="160"/>
+      <c r="C249" s="160"/>
+      <c r="D249" s="160"/>
       <c r="E249" s="36"/>
       <c r="F249" s="36"/>
       <c r="G249" s="36"/>
       <c r="H249" s="36"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A250" s="55"/>
-      <c r="B250" s="55"/>
-      <c r="C250" s="55"/>
-      <c r="D250" s="55"/>
+    <row r="250" spans="1:8">
+      <c r="A250" s="160"/>
+      <c r="B250" s="160"/>
+      <c r="C250" s="160"/>
+      <c r="D250" s="160"/>
       <c r="E250" s="36"/>
       <c r="F250" s="36"/>
       <c r="G250" s="36"/>
       <c r="H250" s="36"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A251" s="55"/>
-      <c r="B251" s="55"/>
-      <c r="C251" s="55"/>
-      <c r="D251" s="55"/>
+    <row r="251" spans="1:8">
+      <c r="A251" s="160"/>
+      <c r="B251" s="160"/>
+      <c r="C251" s="160"/>
+      <c r="D251" s="160"/>
       <c r="E251" s="36"/>
       <c r="F251" s="36"/>
       <c r="G251" s="36"/>
       <c r="H251" s="36"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A252" s="55"/>
-      <c r="B252" s="55"/>
-      <c r="C252" s="55"/>
-      <c r="D252" s="55"/>
+    <row r="252" spans="1:8">
+      <c r="A252" s="160"/>
+      <c r="B252" s="160"/>
+      <c r="C252" s="160"/>
+      <c r="D252" s="160"/>
       <c r="E252" s="36"/>
       <c r="F252" s="36"/>
       <c r="G252" s="36"/>
       <c r="H252" s="36"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A253" s="55"/>
-      <c r="B253" s="55"/>
-      <c r="C253" s="55"/>
-      <c r="D253" s="55"/>
+    <row r="253" spans="1:8">
+      <c r="A253" s="160"/>
+      <c r="B253" s="160"/>
+      <c r="C253" s="160"/>
+      <c r="D253" s="160"/>
       <c r="E253" s="36"/>
       <c r="F253" s="36"/>
       <c r="G253" s="36"/>
       <c r="H253" s="36"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A254" s="55"/>
-      <c r="B254" s="55"/>
-      <c r="C254" s="55"/>
-      <c r="D254" s="55"/>
+    <row r="254" spans="1:8">
+      <c r="A254" s="160"/>
+      <c r="B254" s="160"/>
+      <c r="C254" s="160"/>
+      <c r="D254" s="160"/>
       <c r="E254" s="36"/>
       <c r="F254" s="36"/>
       <c r="G254" s="36"/>
       <c r="H254" s="36"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A255" s="55"/>
-      <c r="B255" s="55"/>
-      <c r="C255" s="55"/>
-      <c r="D255" s="55"/>
+    <row r="255" spans="1:8">
+      <c r="A255" s="160"/>
+      <c r="B255" s="160"/>
+      <c r="C255" s="160"/>
+      <c r="D255" s="160"/>
       <c r="E255" s="36"/>
       <c r="F255" s="36"/>
       <c r="G255" s="36"/>
       <c r="H255" s="36"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A256" s="55"/>
-      <c r="B256" s="55"/>
-      <c r="C256" s="55"/>
-      <c r="D256" s="55"/>
+    <row r="256" spans="1:8">
+      <c r="A256" s="160"/>
+      <c r="B256" s="160"/>
+      <c r="C256" s="160"/>
+      <c r="D256" s="160"/>
       <c r="E256" s="36"/>
       <c r="F256" s="36"/>
       <c r="G256" s="36"/>
       <c r="H256" s="36"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A257" s="55"/>
-      <c r="B257" s="55"/>
-      <c r="C257" s="55"/>
-      <c r="D257" s="55"/>
+    <row r="257" spans="1:8">
+      <c r="A257" s="160"/>
+      <c r="B257" s="160"/>
+      <c r="C257" s="160"/>
+      <c r="D257" s="160"/>
       <c r="E257" s="36"/>
       <c r="F257" s="36"/>
       <c r="G257" s="36"/>
       <c r="H257" s="36"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A258" s="55"/>
-      <c r="B258" s="55"/>
-      <c r="C258" s="55"/>
-      <c r="D258" s="55"/>
+    <row r="258" spans="1:8">
+      <c r="A258" s="160"/>
+      <c r="B258" s="160"/>
+      <c r="C258" s="160"/>
+      <c r="D258" s="160"/>
       <c r="E258" s="36"/>
       <c r="F258" s="36"/>
       <c r="G258" s="36"/>
       <c r="H258" s="36"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A259" s="55"/>
-      <c r="B259" s="55"/>
-      <c r="C259" s="55"/>
-      <c r="D259" s="55"/>
+    <row r="259" spans="1:8">
+      <c r="A259" s="160"/>
+      <c r="B259" s="160"/>
+      <c r="C259" s="160"/>
+      <c r="D259" s="160"/>
       <c r="E259" s="36"/>
       <c r="F259" s="36"/>
       <c r="G259" s="36"/>
       <c r="H259" s="36"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A260" s="55"/>
-      <c r="B260" s="55"/>
-      <c r="C260" s="55"/>
-      <c r="D260" s="55"/>
+    <row r="260" spans="1:8">
+      <c r="A260" s="160"/>
+      <c r="B260" s="160"/>
+      <c r="C260" s="160"/>
+      <c r="D260" s="160"/>
       <c r="E260" s="36"/>
       <c r="F260" s="36"/>
       <c r="G260" s="36"/>
       <c r="H260" s="36"/>
     </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="160"/>
+      <c r="B261" s="160"/>
+      <c r="C261" s="160"/>
+      <c r="D261" s="160"/>
+      <c r="E261" s="36"/>
+      <c r="F261" s="36"/>
+      <c r="G261" s="36"/>
+      <c r="H261" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="343">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
+  <mergeCells count="345">
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:H225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:H226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:H227"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="C222:H222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="C223:H223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:H224"/>
+    <mergeCell ref="A217:E217"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="A219:H219"/>
+    <mergeCell ref="C220:H221"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="A187:E187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:H184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:H180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:H181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:H182"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="C177:H178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:H179"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="C134:H135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="C94:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="C76:H77"/>
+    <mergeCell ref="C80:H81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="C78:H79"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:H69"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C70:H71"/>
+    <mergeCell ref="C72:H73"/>
+    <mergeCell ref="C74:H75"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:H51"/>
     <mergeCell ref="A52:B52"/>
@@ -6296,321 +6608,40 @@
     <mergeCell ref="C49:H49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:H50"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:H69"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C70:H71"/>
-    <mergeCell ref="C72:H73"/>
-    <mergeCell ref="C74:H75"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="C76:H77"/>
-    <mergeCell ref="C80:H81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="C78:H79"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="C94:H95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="C134:H135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="C177:H178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:H179"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:H183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:H184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:H180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:H181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:H182"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="A187:E187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="A202:E202"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="A209:E209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="C221:H221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="C222:H222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="C223:H223"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="A217:E217"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="A218:H218"/>
-    <mergeCell ref="C219:H220"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="C224:H224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="C225:H225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C226:H226"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="45" max="7" man="1"/>
     <brk id="93" max="7" man="1"/>
     <brk id="133" max="7" man="1"/>
     <brk id="176" max="7" man="1"/>
-    <brk id="218" max="7" man="1"/>
+    <brk id="219" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Compass.WinForm/bin/Debug/JobCard.xlsx
+++ b/Compass.WinForm/bin/Debug/JobCard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass.WinForm\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CCF278-F186-433E-81B9-FAE900DD437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561EE0CE-B5C3-4DC8-B969-CCC55D12A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -2534,8 +2534,8 @@
   </sheetPr>
   <dimension ref="A2:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A160" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:E196"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A193" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
